--- a/data/LVCVA Data.xlsx
+++ b/data/LVCVA Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joshu\OneDrive\Desktop\Portfolios and Projects\Vegas Tourism 2125\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36D50AE1-73C8-449A-A49D-53EA131B3893}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D27A0D3-4910-4CCB-A980-6DE2EB07063C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{649FB2B9-536A-4BD1-B78A-D7E69689E7EC}"/>
   </bookViews>
